--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1410460.988378704</v>
+        <v>1481503.531929797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6111339.237638923</v>
+        <v>6579384.758921033</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>284.8511015330232</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.5368897552615</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1472970361152</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>199.4201398804786</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -896,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>306.1941869963597</v>
+        <v>204.2461075661328</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.47678022721476</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1102,19 +1104,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054592</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>204.2461075661328</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1187,7 +1189,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>20.5675417838135</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>287.9420426233989</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579207839</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790374</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V14" t="n">
-        <v>287.4698946803657</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.900432531802</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.55329631630245</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131198</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633445</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244265</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700999002</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>27.07950026194634</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604904864</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482691</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>107.4059292302419</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>67.45240452679985</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>13.99728392829967</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>214.9695147324809</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>390.1138934275149</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>15.57230972412445</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,16 +3954,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436918</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>68.72598604217326</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.9539245507288</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>24.34318456170485</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.8334410837864</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>394.6909682672097</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4334,16 +4336,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2087.376649238293</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1682.521194649326</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.378731228637</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1259.133011568694</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1032.884738113077</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L3" t="n">
-        <v>1032.884738113077</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M3" t="n">
-        <v>1032.884738113077</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N3" t="n">
-        <v>1032.884738113077</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
-        <v>447.554615037751</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4492,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2468.626341703672</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.5358106104095</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C5" t="n">
-        <v>139.2487530383289</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4598,19 +4600,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795664</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.8353810953173</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P6" t="n">
         <v>1599.468199913098</v>
@@ -4723,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013252</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>1956.566681883682</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1684.540277469974</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1439.148522803386</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1211.728852117495</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.1411632272193</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
         <v>138.8319636654689</v>
@@ -4808,16 +4810,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4835,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1598.869320833163</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1179.726857412474</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>771.4407337121271</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>987.3566790731575</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>814.7949675563824</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.986723144624</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.594968478036</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1179.175297792145</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>785.1194205777978</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>346.9769477612211</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677764</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677764</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677764</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677764</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677764</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>3128.911340966338</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>4109.091007536645</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4109.091007536645</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062706</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677764</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677764</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>484.0630267508876</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>484.0630267508876</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>484.0630267508876</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>484.0630267508876</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508876</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883408</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753839</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.81460434013</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673542</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1608.296560022795</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1608.296560022795</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.296560022795</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902976</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135614</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022719</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.668109022719</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.668109022719</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>2432.294478032451</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>2027.439023443484</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>1608.296560022795</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.296560022795</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723523</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677764</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452701</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3654.644638328873</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4634.82430489918</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4634.82430489918</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674045</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181417</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387798979</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.363958244296</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497401</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367832</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954123</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6069,22 +6071,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>218.2738200637269</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883962</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716212</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731439</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6420,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173571</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759863</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093275</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,16 +6548,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.876241053795</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3205.876241053795</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3039.998248255318</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2870.240244506055</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2693.533190467811</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3397.694859772782</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3205.876241053794</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C37" t="n">
-        <v>3033.314529537019</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D37" t="n">
-        <v>2867.436536738542</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E37" t="n">
-        <v>2697.678532989279</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F37" t="n">
-        <v>2520.971478951035</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636181</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4953.800644836977</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>4707.921198415433</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>4429.488197668538</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>4142.532689538969</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W37" t="n">
-        <v>3870.506285125261</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X37" t="n">
-        <v>3625.114530458673</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y37" t="n">
-        <v>3397.694859772781</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7156,67 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4115.57807395253</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785926</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7242,37 +7244,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7327,13 +7329,13 @@
         <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7348,34 +7350,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>930.5954466717699</v>
+        <v>2118.594685950267</v>
       </c>
       <c r="C41" t="n">
-        <v>492.4529738551931</v>
+        <v>1680.45221313369</v>
       </c>
       <c r="D41" t="n">
-        <v>56.54318902963765</v>
+        <v>1244.542428308135</v>
       </c>
       <c r="E41" t="n">
-        <v>56.54318902963765</v>
+        <v>810.7676834664296</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677766</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K41" t="n">
-        <v>722.6273955810126</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.191591333636</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086259</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.319982838883</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838883</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838883</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838883</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838883</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838883</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838883</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2589.17905886668</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2589.17905886668</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.323604277713</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>1765.181140857024</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1356.895017156678</v>
+        <v>2544.894256435175</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723525</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723525</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>213.0649915359998</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886233</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N42" t="n">
-        <v>1602.193383041247</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.011991740977</v>
+        <v>3150.903516651764</v>
       </c>
       <c r="C43" t="n">
-        <v>838.4502802242024</v>
+        <v>2978.341805134989</v>
       </c>
       <c r="D43" t="n">
-        <v>672.5722874257251</v>
+        <v>2812.463812336512</v>
       </c>
       <c r="E43" t="n">
-        <v>502.8142836764624</v>
+        <v>2642.705808587249</v>
       </c>
       <c r="F43" t="n">
-        <v>326.1072296382185</v>
+        <v>2465.998754549005</v>
       </c>
       <c r="G43" t="n">
-        <v>160.5159546640462</v>
+        <v>2300.407479574833</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>2160.505305265207</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677766</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>2158.425041204573</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>2433.183495775709</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605642</v>
+        <v>2851.393377543669</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>3310.877244724582</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>3753.136047882227</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>4172.805297108008</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>4520.31219107835</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>4667.087144648054</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>4507.845775946051</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>4261.966329524506</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>4261.966329524506</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>4087.559965136939</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>3815.53356072323</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.250281145856</v>
+        <v>3570.141806056643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.830610459965</v>
+        <v>3342.722135370751</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1792.237621104267</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C44" t="n">
-        <v>1354.09514828769</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D44" t="n">
-        <v>918.1853634621348</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E44" t="n">
-        <v>484.4106186204299</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F44" t="n">
-        <v>56.54318902963765</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677766</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677766</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>722.6273955810126</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.191591333636</v>
+        <v>2710.861359785923</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086259</v>
+        <v>2710.861359785923</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838883</v>
+        <v>3691.041026356229</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838883</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838883</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838883</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838883</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2637.679655009864</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2637.679655009864</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>2637.679655009864</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W44" t="n">
-        <v>2637.679655009864</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X44" t="n">
-        <v>2218.537191589175</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2218.537191589175</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351367</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188009</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334562</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661516</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277678</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543862</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360074</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520532</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486744</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112468</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744543</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838883</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287266</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617868</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617836</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679835</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413029</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651909</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.55586743113</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765.6202370743899</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>593.0585255576149</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>427.1805327591376</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>257.4225290098748</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>80.71547497163104</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>80.71547497163104</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>80.71547497163104</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605642</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.544640857574</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.665194436029</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>1989.232193689134</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.276685559565</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.250281145856</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1184.858526479269</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>957.4388557933771</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>321.6407242930886</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,10 +8142,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>540.0049805212334</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8456,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>414.4039329828092</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>212.2804580932204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9182,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>312.1854988755003</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>695.4268903509983</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163989</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097207</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>132.1968875947116</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163989</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097207</v>
+        <v>275.1780957607211</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>143.608644353901</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473473</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V14" t="n">
-        <v>71.52088588514607</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.5921776627304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473393</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627215</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>56.52943299418874</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.4233680290296</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556932</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>41.66056492367238</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.08936903582821</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.9308428424048</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.423652304582</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>328.6578670207955</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>50.91263030496293</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>63.43016517136657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.2200092229007</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384293.6948140321</v>
+        <v>544481.7833024508</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384293.6948140321</v>
+        <v>544481.7833024508</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580613.0768561924</v>
+        <v>580613.0768561923</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580613.0768561924</v>
+        <v>580613.0768561926</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580613.0768561926</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580613.0768561926</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580613.0768561924</v>
+        <v>580613.0768561923</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580613.0768561923</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384293.6948140322</v>
+        <v>544481.7833024508</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384293.6948140322</v>
+        <v>544481.7833024508</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>402110.4899178064</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178065</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661555</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="H2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="I2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="H2" t="n">
-        <v>395143.1881030142</v>
-      </c>
-      <c r="I2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
@@ -26350,10 +26352,10 @@
         <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.6032414119</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045617</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.250528837155401e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177061</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340735</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>36113.14695271197</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271198</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962282</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271198</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861009</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915102</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915102</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43811.92747378531</v>
+        <v>-43811.9274737853</v>
       </c>
       <c r="C6" t="n">
         <v>179887.7711102595</v>
       </c>
       <c r="D6" t="n">
-        <v>179887.7711102596</v>
+        <v>179887.7711102595</v>
       </c>
       <c r="E6" t="n">
-        <v>172595.4724738364</v>
+        <v>97456.10718872515</v>
       </c>
       <c r="F6" t="n">
-        <v>182766.4690742926</v>
+        <v>248121.8607604731</v>
       </c>
       <c r="G6" t="n">
-        <v>104803.6474414897</v>
+        <v>233773.3152149912</v>
       </c>
       <c r="H6" t="n">
         <v>262863.1243875989</v>
       </c>
       <c r="I6" t="n">
-        <v>262863.1243875989</v>
+        <v>262863.1243875988</v>
       </c>
       <c r="J6" t="n">
-        <v>88211.77566989273</v>
+        <v>88211.77566989267</v>
       </c>
       <c r="K6" t="n">
-        <v>262863.124387599</v>
+        <v>262863.1243875988</v>
       </c>
       <c r="L6" t="n">
         <v>262863.1243875989</v>
       </c>
       <c r="M6" t="n">
-        <v>254374.0426842582</v>
+        <v>137112.0360519082</v>
       </c>
       <c r="N6" t="n">
         <v>262863.1243875988</v>
       </c>
       <c r="O6" t="n">
-        <v>182766.4690742927</v>
+        <v>248121.8607604731</v>
       </c>
       <c r="P6" t="n">
-        <v>182766.4690742926</v>
+        <v>248121.860760473</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26825,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097207</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097207</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0647891018635</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186327</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.0647891018635</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>146.6995854442767</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>71.70196325595435</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.07191583437728</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.0005120768507</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>127.5668610920512</v>
+        <v>229.5149405222781</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.4233680290255</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
-        <v>229.5149405222781</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28482,7 +28484,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.845854397888957e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.43088606097896e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29490,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.745772102246885e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -30420,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-4.745772102246885e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30511,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.903766675489988e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -34702,19 +34704,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>321.6407242930886</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,10 +34862,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>540.0049805212334</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35176,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>414.4039329828092</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>212.2804580932204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35902,10 +35904,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>312.1854988755003</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>695.4268903509983</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,7 +37563,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37716,7 +37718,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616502</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163989</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097207</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>132.1968875947116</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -37956,7 +37958,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163989</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097207</v>
+        <v>275.1780957607211</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1481503.531929797</v>
+        <v>1480897.4443009</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797166</v>
+        <v>606553.2040797157</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>208.5168716950835</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>214.5368897552615</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -822,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>199.4201398804786</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>204.2461075661328</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>61.23284287475803</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.88277234054592</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.8915546016272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264947</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119187</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>233.3437899988008</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170481</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>28.85560178398625</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>268.3329913731113</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>145.83876749105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>39.86022305741702</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738937</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244265</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700999002</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>27.07950026194634</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>50.30825486907106</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>152.8474034491069</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>102.6974459740356</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>123.2901323038658</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>103.8284742946031</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.45240452679985</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>146.3752975271662</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>344.9014115296853</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.1138934275149</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>129.5445345985667</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436918</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>68.72598604217326</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.31336456304354</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4140,16 +4140,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>116.0222355487762</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>193.8659438253731</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389.6379614873604</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C2" t="n">
-        <v>355.5358927111877</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D2" t="n">
-        <v>323.6665119260363</v>
+        <v>582.8888146090196</v>
       </c>
       <c r="E2" t="n">
-        <v>293.9321711247355</v>
+        <v>553.1544738077189</v>
       </c>
       <c r="F2" t="n">
-        <v>270.1051455743473</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>270.1051455743473</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4333,19 +4333,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1954.407975719776</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719776</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.5813843420327</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2468.626341703672</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2190.193340956777</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1903.237832827208</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1631.211428413499</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.819673746912</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1158.40000306102</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.1815672676233</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>542.872367705873</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
         <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
         <v>53.40121652862856</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488303</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.72477542213</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>1598.869320833163</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X5" t="n">
-        <v>1179.726857412474</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1175.481137752531</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>855.8710292644072</v>
       </c>
       <c r="D7" t="n">
         <v>794.0196728252577</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.33055796836</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9340324416416</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4807,7 +4807,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
         <v>1149.495958523325</v>
@@ -4822,34 +4822,34 @@
         <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>3128.911340966338</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>4109.091007536645</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>4109.091007536645</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2639367364659</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7022252196908</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>464.8242324212135</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E13" t="n">
-        <v>295.0662286719508</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F13" t="n">
-        <v>118.359174633707</v>
+        <v>262.8193461375562</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>262.8193461375562</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>122.9171718279307</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.87589335121</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0825554554531</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.193079588086</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,7 +5351,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2674.873217292374</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5740,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882657</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674045</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181417</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387798979</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.363958244296</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497401</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367832</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954123</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.557290287536</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601644</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.573296407379</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C28" t="n">
-        <v>831.0115848906036</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>665.1335920921263</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>495.3755883428635</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>318.6685343046197</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>153.0772593304474</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="35">
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.634124109936</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C37" t="n">
-        <v>885.0724125931612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>719.1944197946839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>549.4364160454211</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>372.7293620071773</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>207.138087033005</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.264168181403</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X37" t="n">
-        <v>1476.872413514815</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y37" t="n">
-        <v>1249.452742828923</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7362,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514815</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249.452742828923</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1063803693477</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K41" t="n">
-        <v>1258.456672327526</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L41" t="n">
-        <v>2333.516638580385</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M41" t="n">
-        <v>2333.516638580385</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N41" t="n">
-        <v>2333.516638580385</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150691</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984088</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3777.178298145177</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3372.322843556211</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>2953.180380135521</v>
       </c>
       <c r="Y41" t="n">
         <v>2544.894256435175</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3150.903516651764</v>
+        <v>1049.143383158011</v>
       </c>
       <c r="C43" t="n">
-        <v>2978.341805134989</v>
+        <v>876.5816716412356</v>
       </c>
       <c r="D43" t="n">
-        <v>2812.463812336512</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E43" t="n">
-        <v>2642.705808587249</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F43" t="n">
-        <v>2465.998754549005</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>2300.407479574833</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>2160.505305265207</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>2158.425041204573</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.183495775709</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.393377543669</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>3310.877244724582</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>3753.136047882227</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>4172.805297108008</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>4520.31219107835</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>4688.504965942682</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>4667.087144648054</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.845775946051</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>4261.966329524506</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="U43" t="n">
-        <v>4261.966329524506</v>
+        <v>2272.755339772755</v>
       </c>
       <c r="V43" t="n">
-        <v>4087.559965136939</v>
+        <v>1985.799831643186</v>
       </c>
       <c r="W43" t="n">
-        <v>3815.53356072323</v>
+        <v>1713.773427229477</v>
       </c>
       <c r="X43" t="n">
-        <v>3570.141806056643</v>
+        <v>1468.38167256289</v>
       </c>
       <c r="Y43" t="n">
-        <v>3342.722135370751</v>
+        <v>1240.962001876998</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2188.014873871654</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C44" t="n">
-        <v>1749.872401055077</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D44" t="n">
-        <v>1313.962616229522</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E44" t="n">
-        <v>880.1878713878168</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F44" t="n">
-        <v>452.3204417970246</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M44" t="n">
-        <v>2710.861359785923</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N44" t="n">
-        <v>2710.861359785923</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>3691.041026356229</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>4519.350901189626</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4619.501567394155</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4399.434340267194</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132738</v>
+        <v>4140.212037584211</v>
       </c>
       <c r="V44" t="n">
-        <v>3846.598486066564</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W44" t="n">
-        <v>3441.743031477597</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X44" t="n">
-        <v>3022.600568056908</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y44" t="n">
-        <v>2614.314444356562</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>492.0902266030666</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G46" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2305.308894098105</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002201</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,7 +8142,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>464.1251183645587</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4039329828092</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,25 +8932,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>730.6984529605797</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9418,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6730111621152</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>275.1780957607211</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442346</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.6469905667109</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>58.91774794908517</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>155.255763921773</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7913121651032</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0797604404443</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473393</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>111.4236523045829</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>88.19489769745817</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>131.238549599167</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.67467827192613</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.4480280049974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>96.56253959275548</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>14.08936903582645</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.08936903582821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.67467827192581</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.423652304582</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>328.6578670207955</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>14.50199051495782</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.2200092229007</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544481.7833024508</v>
+        <v>544481.783302451</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580613.0768561923</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580613.0768561926</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580613.0768561923</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
@@ -26322,16 +26322,16 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>370553.6032414119</v>
+        <v>370553.603241412</v>
       </c>
       <c r="F2" t="n">
-        <v>370553.6032414119</v>
+        <v>370553.603241412</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030141</v>
@@ -26343,19 +26343,19 @@
         <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
-        <v>370553.6032414119</v>
+        <v>370553.603241412</v>
       </c>
       <c r="P2" t="n">
-        <v>370553.6032414119</v>
+        <v>370553.603241412</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>148010.1942457892</v>
       </c>
       <c r="C4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="F4" t="n">
         <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26444,7 +26444,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
@@ -26453,13 +26453,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43811.9274737853</v>
+        <v>-43811.92747378537</v>
       </c>
       <c r="C6" t="n">
         <v>179887.7711102595</v>
@@ -26530,40 +26530,40 @@
         <v>179887.7711102595</v>
       </c>
       <c r="E6" t="n">
-        <v>97456.10718872515</v>
+        <v>97350.91756647042</v>
       </c>
       <c r="F6" t="n">
-        <v>248121.8607604731</v>
+        <v>248016.6711382185</v>
       </c>
       <c r="G6" t="n">
-        <v>233773.3152149912</v>
+        <v>233750.0908756086</v>
       </c>
       <c r="H6" t="n">
-        <v>262863.1243875989</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="I6" t="n">
-        <v>262863.1243875988</v>
+        <v>262839.9000482162</v>
       </c>
       <c r="J6" t="n">
-        <v>88211.77566989267</v>
+        <v>88188.55133051009</v>
       </c>
       <c r="K6" t="n">
-        <v>262863.1243875988</v>
+        <v>262839.9000482162</v>
       </c>
       <c r="L6" t="n">
-        <v>262863.1243875989</v>
+        <v>262839.9000482162</v>
       </c>
       <c r="M6" t="n">
-        <v>137112.0360519082</v>
+        <v>137088.8117125254</v>
       </c>
       <c r="N6" t="n">
-        <v>262863.1243875988</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="O6" t="n">
-        <v>248121.8607604731</v>
+        <v>248016.6711382184</v>
       </c>
       <c r="P6" t="n">
-        <v>248121.860760473</v>
+        <v>248016.6711382185</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>215.0718835998008</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>71.70196325595435</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437728</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>44.0005120768507</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>229.5149405222781</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>52.65760510107381</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4233680290255</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.14502017843148</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>63.43016517136664</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,10 +34862,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35421,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4039329828092</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,25 +35652,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>730.6984529605797</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36138,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.358033040607337e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6730111621152</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>275.1780957607211</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
